--- a/Proyecto/Proyectos/Proyectos_Informacion.xlsx
+++ b/Proyecto/Proyectos/Proyectos_Informacion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://salesbridge-my.sharepoint.com/personal/quesadawillie_la-bridgestone_com/Documents/Desktop/Proyecto/Proyectos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://salesbridge-my.sharepoint.com/personal/quesadawillie_la-bridgestone_com/Documents/Desktop/Proyecto/7_Proyectos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="11_F25DC773A252ABDACC1048EC39585BBC5BDE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8618327-E1ED-4C3A-8982-0854689D31F8}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="11_F25DC773A252ABDACC1048EC39585BBC5BDE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AAEDF66-DA38-4310-9324-0DC438262B5B}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="49">
   <si>
     <t>Nombre</t>
   </si>
@@ -36,54 +36,6 @@
     <t>Imagen_Principal</t>
   </si>
   <si>
-    <t>Imagen_1</t>
-  </si>
-  <si>
-    <t>Imagen_2</t>
-  </si>
-  <si>
-    <t>Imagen_3</t>
-  </si>
-  <si>
-    <t>Imagen_4</t>
-  </si>
-  <si>
-    <t>Imagen_5</t>
-  </si>
-  <si>
-    <t>Imagen_6</t>
-  </si>
-  <si>
-    <t>Imagen_7</t>
-  </si>
-  <si>
-    <t>Imagen_8</t>
-  </si>
-  <si>
-    <t>Imagen_9</t>
-  </si>
-  <si>
-    <t>Imagen_10</t>
-  </si>
-  <si>
-    <t>Imagen_11</t>
-  </si>
-  <si>
-    <t>Imagen_12</t>
-  </si>
-  <si>
-    <t>Imagen_13</t>
-  </si>
-  <si>
-    <t>Imagen_14</t>
-  </si>
-  <si>
-    <t>Imagen_15</t>
-  </si>
-  <si>
-    <t>Imagen_16</t>
-  </si>
-  <si>
     <t>Descripcion</t>
   </si>
   <si>
@@ -160,6 +112,72 @@
   </si>
   <si>
     <t>nakury_principal</t>
+  </si>
+  <si>
+    <t>Caracteristicas</t>
+  </si>
+  <si>
+    <t>Amenidades</t>
+  </si>
+  <si>
+    <t>Seguridad privada 24/7.
+Piscina al aire libre.
+Rancho con parrilla.
+Mantenimiento de los terrenos.</t>
+  </si>
+  <si>
+    <t>Lotes desde 400m2.
+Financiamiento directo.
+Permisos de Agua y Luz.
+Listo para construcción.</t>
+  </si>
+  <si>
+    <t>Foto_1</t>
+  </si>
+  <si>
+    <t>Foto_2</t>
+  </si>
+  <si>
+    <t>Foto_3</t>
+  </si>
+  <si>
+    <t>Foto_4</t>
+  </si>
+  <si>
+    <t>Foto_5</t>
+  </si>
+  <si>
+    <t>Foto_6</t>
+  </si>
+  <si>
+    <t>Foto_7</t>
+  </si>
+  <si>
+    <t>Foto_8</t>
+  </si>
+  <si>
+    <t>Foto_9</t>
+  </si>
+  <si>
+    <t>Foto_10</t>
+  </si>
+  <si>
+    <t>Foto_11</t>
+  </si>
+  <si>
+    <t>Foto_12</t>
+  </si>
+  <si>
+    <t>Foto_13</t>
+  </si>
+  <si>
+    <t>Foto_14</t>
+  </si>
+  <si>
+    <t>Foto_15</t>
+  </si>
+  <si>
+    <t>Foto_16</t>
   </si>
 </sst>
 </file>
@@ -201,8 +219,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,207 +504,631 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="23.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" customWidth="1"/>
-    <col min="5" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="23.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" customWidth="1"/>
+    <col min="7" max="15" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="22" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U6" t="s">
+        <v>24</v>
+      </c>
+      <c r="V6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" t="s">
+        <v>24</v>
+      </c>
+      <c r="V7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" t="s">
+        <v>24</v>
+      </c>
+      <c r="V8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="F9" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" t="s">
+        <v>24</v>
+      </c>
+      <c r="V9" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
